--- a/MSCI_AC_WORLD/MSCIACW_with_charts.xlsx
+++ b/MSCI_AC_WORLD/MSCIACW_with_charts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="全球权重" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="欧洲权重" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="全球权重" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="欧洲权重" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>3</col>
@@ -153,13 +153,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
